--- a/combined_model/results/comparison_results.xlsx
+++ b/combined_model/results/comparison_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddo\DL_stack\Halimeda\combined_model\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A87AC5F-AFAA-40BA-BDC2-7BCEC9657062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230EB64-37E2-4E6F-A87D-CF4E63652977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C741A474-2E85-4CAE-8F7D-A785337B78F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>1024_3_000033_c</t>
   </si>
@@ -81,9 +81,6 @@
     <t>OD best run k fold test (fold 3)</t>
   </si>
   <si>
-    <t>SS best run k fold test (fold c ?)</t>
-  </si>
-  <si>
     <t>object_coverage</t>
   </si>
   <si>
@@ -106,6 +103,30 @@
   </si>
   <si>
     <t>inference_SS_all_val</t>
+  </si>
+  <si>
+    <t>SS over total test set (SS + OD)</t>
+  </si>
+  <si>
+    <t>OD over total test set (SS + OD)</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>combined_weights</t>
+  </si>
+  <si>
+    <t>Combined model 0</t>
+  </si>
+  <si>
+    <t>all_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val -Revisar!! </t>
+  </si>
+  <si>
+    <t>SS best run k fold test (fold c )</t>
   </si>
 </sst>
 </file>
@@ -151,7 +172,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +245,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -248,24 +281,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -297,9 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,13 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +354,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -666,19 +688,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C125F3D0-A53A-45E7-8347-62C18A50907B}">
   <dimension ref="A4:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="23"/>
-    <col min="4" max="4" width="28.42578125" style="23" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="23"/>
-    <col min="10" max="10" width="18.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="51" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="6" style="20" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="20" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="20"/>
+    <col min="10" max="10" width="18.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -709,39 +731,39 @@
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>84</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0.86628918117946996</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.84248489011639205</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>0.92800868916732704</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>0.207535797705972</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>0.88318117350811898</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>0.93221163122644302</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>0.87831472107791075</v>
       </c>
     </row>
@@ -767,181 +789,182 @@
       <c r="G6" s="7">
         <v>6.8763563707786414E-3</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <v>0.82947527786570618</v>
       </c>
       <c r="I6" s="7">
         <v>0.95182576080917058</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="7">
         <v>0.82031841550919671</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="15">
+        <v>96</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.90162240346272782</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.83301619155343187</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.89760087160617219</v>
+      </c>
+      <c r="G7" s="15">
+        <v>9.6226877292227841E-2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.86410341781249078</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.95686928108937364</v>
+      </c>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8">
-        <v>57</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.98345639970567489</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.68210379738860971</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.7813810368726094</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1.0639647582985899E-2</v>
-      </c>
-      <c r="H8" s="25">
-        <v>0.72837512214783007</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.97031256569132018</v>
-      </c>
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.80579514821370446</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.76904333260954472</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.63265829299802268</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.10161108905585831</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.69421570634103202</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.8012839188643045</v>
+      </c>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.79067658666354512</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.77300541228890363</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.56819811262994924</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8.9708085968592949E-2</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0.65496430355991642</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.76253276230957501</v>
-      </c>
-      <c r="J9" s="10"/>
+      <c r="A9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="26">
+        <v>58</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.89933191935221357</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.81773647373947445</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.91505102213967549</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.1090746724853502</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0.86366112165018383</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0.94745525101633143</v>
+      </c>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="C14" s="13">
         <v>37</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D14" s="13">
         <v>0.8458855152130127</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E14" s="13">
         <v>0.8475558013880965</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F14" s="13">
         <v>0.88760770143371848</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G14" s="13">
         <v>0.20864020240075901</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H14" s="23">
         <v>0.86711950255232562</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I14" s="13">
         <v>0.92147266537490147</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C15" s="13">
         <v>90</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D15" s="13">
         <v>0.87686548660050578</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E15" s="13">
         <v>0.78502694794223193</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F15" s="13">
         <v>0.87116788177019389</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G15" s="13">
         <v>0.1202622753684125</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H15" s="5">
         <v>0.82585726160019723</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I15" s="13">
         <v>0.94755930620320783</v>
       </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.87668588268223091</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.77880820993350219</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.88279553639876607</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.12639407464791119</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0.82754797942363911</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.9438880658634814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -949,39 +972,102 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.87668588268223091</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.77880820993350219</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.88279553639876607</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.12639407464791119</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.82754797942363911</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.9438880658634814</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.98345639970567489</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.68210379738860971</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.7813810368726094</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1.0639647582985899E-2</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.72837512214783007</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.97031256569132018</v>
+      </c>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.79067658666354512</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.77300541228890363</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.56819811262994924</v>
+      </c>
+      <c r="G18" s="8">
+        <v>8.9708085968592949E-2</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0.65496430355991642</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.76253276230957501</v>
+      </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
